--- a/tradept/Excel/Localization/english/Q全局天赋表_Talents_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Q全局天赋表_Talents_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395D4059-B273-4C9E-9DBA-CCEF1118A7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F667D9-B788-474A-A769-0D560B525201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="305">
   <si>
     <t>天赋ID_TalentID</t>
   </si>
@@ -183,9 +183,6 @@
     <t>名帅</t>
   </si>
   <si>
-    <t>Khan</t>
-  </si>
-  <si>
     <t>可用编队上限增加3</t>
   </si>
   <si>
@@ -597,358 +594,358 @@
     <t>雄辩4</t>
   </si>
   <si>
-    <t>Marcha forzada</t>
-  </si>
-  <si>
-    <t>Jinete Veloz</t>
-  </si>
-  <si>
-    <t>Equitación</t>
-  </si>
-  <si>
-    <t>Maestro de Reparaciones</t>
-  </si>
-  <si>
-    <t>Especialista en reparaciones</t>
-  </si>
-  <si>
-    <t>Herrero</t>
-  </si>
-  <si>
-    <t>Gestionar grano</t>
-  </si>
-  <si>
-    <t>Almacén de granos</t>
-  </si>
-  <si>
-    <t>Comprar grano</t>
-  </si>
-  <si>
-    <t>Grano mejorado</t>
-  </si>
-  <si>
     <t>Proteína</t>
   </si>
   <si>
-    <t>Militar disciplinado</t>
-  </si>
-  <si>
-    <t>Liderazgo</t>
-  </si>
-  <si>
-    <t>Entrenamiento</t>
-  </si>
-  <si>
-    <t>Maestro de perforación</t>
-  </si>
-  <si>
-    <t>Bien entrenado</t>
-  </si>
-  <si>
-    <t>Amigo de las bestias</t>
-  </si>
-  <si>
-    <t>Colaboración</t>
-  </si>
-  <si>
-    <t>Comunicador de espíritus</t>
-  </si>
-  <si>
-    <t>Torre de vigilancia</t>
-  </si>
-  <si>
-    <t>Cirujano</t>
-  </si>
-  <si>
-    <t>Especialista en cirugía</t>
-  </si>
-  <si>
-    <t>Rehabilitación</t>
-  </si>
-  <si>
-    <t>Alivio de combate</t>
-  </si>
-  <si>
-    <t>Elaboración de pociones</t>
-  </si>
-  <si>
-    <t>Revivir rápido</t>
-  </si>
-  <si>
-    <t>Maestro Oculto</t>
-  </si>
-  <si>
     <t>Comerciante</t>
   </si>
   <si>
-    <t>Magnate</t>
-  </si>
-  <si>
-    <t>Merodeador</t>
-  </si>
-  <si>
-    <t>Adinerado</t>
-  </si>
-  <si>
-    <t>Expansión de la bolsa</t>
-  </si>
-  <si>
-    <t>Bolsa masiva</t>
-  </si>
-  <si>
-    <t>Almacén de Orbes</t>
-  </si>
-  <si>
-    <t>Eficiencia en la construcción</t>
-  </si>
-  <si>
-    <t>Experto en Jade</t>
-  </si>
-  <si>
-    <t>Maestro de Jade</t>
-  </si>
-  <si>
     <t>Carisma</t>
   </si>
   <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Acosador</t>
-  </si>
-  <si>
-    <t>Gran amabilidad</t>
-  </si>
-  <si>
-    <t>Taladro</t>
-  </si>
-  <si>
-    <t>Sargento de instrucción</t>
-  </si>
-  <si>
-    <t>Milicia</t>
-  </si>
-  <si>
-    <t>Campeón</t>
-  </si>
-  <si>
-    <t>Camaradería</t>
-  </si>
-  <si>
-    <t>Estimado/a</t>
-  </si>
-  <si>
     <t>Político</t>
   </si>
   <si>
-    <t>Animal político</t>
-  </si>
-  <si>
-    <t>Prudencia</t>
-  </si>
-  <si>
-    <t>Capitán mercenario</t>
-  </si>
-  <si>
-    <t>Especialista en asedios</t>
-  </si>
-  <si>
     <t>Talentos Revelados</t>
   </si>
   <si>
-    <t>Elocuencia</t>
-  </si>
-  <si>
-    <t>Palabras de persuasión</t>
-  </si>
-  <si>
-    <t>Experto en infiltración</t>
-  </si>
-  <si>
-    <t>Informe de espionaje</t>
-  </si>
-  <si>
     <t>Marcha</t>
   </si>
   <si>
-    <t>[$platform_called:pc,Pulsa la barra espaciadora mientras estás montado para correr. Correr consume la resistencia de montura y otorga una velocidad de mapa +80.|mobile,Pulsa el botón de Montura mientras estás montado para correr. Correr consume la resistencia de montura y otorga una velocidad de mapa +80.$]</t>
-  </si>
-  <si>
-    <t>Monte Resistencia +25%</t>
-  </si>
-  <si>
-    <t>Aumenta la Velocidad de Movimiento del grupo en batalla en un 15%</t>
-  </si>
-  <si>
-    <t>Concede 1 juego de Herramientas de Forja Definitivas cada semana</t>
-  </si>
-  <si>
-    <t>Concede 1 juego de Herramientas Avanzadas de Forja cada semana</t>
-  </si>
-  <si>
-    <t>Reducir todos los costos de reparación en un 30%</t>
-  </si>
-  <si>
-    <t>Consumo de alimentos -10%</t>
-  </si>
-  <si>
-    <t>Aumentar el espacio de inventario de alimentos en 3</t>
-  </si>
-  <si>
-    <t>Concesiones 1 trigo por semana</t>
-  </si>
-  <si>
-    <t>Concesiones 1 Carne Seca por semana</t>
-  </si>
-  <si>
-    <t>Aumenta la salud máxima de todos los aliados en batalla en un 5%</t>
-  </si>
-  <si>
-    <t>3 escuadrones adicionales pueden unirse a tu grupo</t>
-  </si>
-  <si>
-    <t>Concede 200 puntos de experiencia de escuadrón por semana</t>
-  </si>
-  <si>
-    <t>Concede 400 puntos de experiencia de escuadrón por semana</t>
-  </si>
-  <si>
-    <t>Reducir los costos de Utar, Madera y Piedra de mejorar las tropas en un 10%</t>
-  </si>
-  <si>
-    <t>(Habilidad Activa) Todas las Bestias y Monstruos aliados: Salud y Daño +10% en batalla</t>
-  </si>
-  <si>
-    <t>(Habilidad Activa) Todos los Humanos aliados: Salud y Daño +10% en batalla</t>
-  </si>
-  <si>
-    <t>(Habilidad Activa) Todos los Aliados Invocados y Magos: Salud y Daño +10% en batalla</t>
-  </si>
-  <si>
-    <t>Siéntate al mando mientras las tropas luchan automáticamente</t>
-  </si>
-  <si>
-    <t>Reducir la tasa de Lesiones Graves del equipo en batalla en un 5%</t>
-  </si>
-  <si>
-    <t>Reducir la tasa de Lesiones Graves del equipo en batalla en un 10%</t>
-  </si>
-  <si>
-    <t>Reducir el costo de curar unidades heridas en un 10%</t>
-  </si>
-  <si>
-    <t>Aumenta la regeneración de salud del grupo en un 5%</t>
-  </si>
-  <si>
-    <t>Recibe 1 Poción de Rosa Blanca (S) cada semana</t>
-  </si>
-  <si>
-    <t>Reduce el tiempo de reaparición de tu personaje principal en la batalla en 1 segundo</t>
-  </si>
-  <si>
-    <t>Recibe 1 Poción de Rosa Blanca (L) cada semana</t>
-  </si>
-  <si>
-    <t>Aumentar el precio de los artículos vendidos en un 5%</t>
-  </si>
-  <si>
-    <t>Aumentar el precio de los artículos vendidos en un 15%</t>
-  </si>
-  <si>
-    <t>Objetos apilables obtenidos saqueando Caravanas y Agricultores +30%</t>
-  </si>
-  <si>
-    <t>¡Otorga 300 Utar adicionales, 100 madera, 100 piedra de hierro y 1 jade cada semana!</t>
-  </si>
-  <si>
-    <t>Aumentar la capacidad de carga en 5</t>
-  </si>
-  <si>
-    <t>Aumentar la capacidad de carga en un 15</t>
-  </si>
-  <si>
-    <t>Concede 1 Orbe Restaurador por semana</t>
-  </si>
-  <si>
-    <t>Concede 1 Orbe Arcano por semana</t>
-  </si>
-  <si>
-    <t>Reducir los recursos necesarios para construir edificios de avanzada en un 25%</t>
-  </si>
-  <si>
-    <t>Concesiones 2 Jade por semana</t>
-  </si>
-  <si>
-    <t>Concede 3 Jade por semana</t>
-  </si>
-  <si>
-    <t>Favor ganado con héroes +5%</t>
-  </si>
-  <si>
-    <t>Favor ganado con héroes +10%</t>
-  </si>
-  <si>
-    <t>Reducir la probabilidad de ser atrapado mientras se entra furtivamente en la ciudad en un 5%</t>
-  </si>
-  <si>
-    <t>Reducir el tiempo de espera requerido entre la entrega de regalos en 1 día</t>
-  </si>
-  <si>
-    <t>(Habilidad activa) La distribución de EXP de héroes y tropas se convierte en 1:2</t>
-  </si>
-  <si>
-    <t>(Habilidad activa) La distribución de EXP de héroes y tropas se convierte en 2:1</t>
-  </si>
-  <si>
-    <t>1 héroe adicional puede unirse a tu grupo</t>
-  </si>
-  <si>
-    <t>2 héroes adicionales pueden unirse a tu grupo</t>
-  </si>
-  <si>
-    <t>Favor obtenido con facciones y puestos avanzados +5%</t>
-  </si>
-  <si>
-    <t>Puede persuadir a héroes hostiles con títulos avanzados</t>
-  </si>
-  <si>
-    <t>Recupera un 10% adicional de recursos al disolver un escuadrón</t>
-  </si>
-  <si>
-    <t>Reducir el costo de reclutar mercenarios en un 33%</t>
-  </si>
-  <si>
-    <t>Comenzar un asedio requiere un 30% menos de tiempo</t>
-  </si>
-  <si>
-    <t>Obtén 2 Devoción cada semana con tu facción</t>
-  </si>
-  <si>
-    <t>Aumentar la tasa de éxito de los esfuerzos diplomáticos en un 10%</t>
-  </si>
-  <si>
-    <t>Reducir el favor requerido para reclutar a todos los héroes en 15</t>
-  </si>
-  <si>
-    <t>Revela todos los detalles sobre todas las guarniciones en todas las ciudades de Salzaar en tu mapa</t>
-  </si>
-  <si>
-    <t>Muestra la información de los héroes activos en tu mapa de Salzaar</t>
-  </si>
-  <si>
-    <t>Aumentar la velocidad del mapa de la grupo en 15</t>
-  </si>
-  <si>
-    <t>Aumentar la velocidad del mapa de la grupo en un 20</t>
-  </si>
-  <si>
-    <t>1 escuadrón adicional puede unirse a tu grupo</t>
-  </si>
-  <si>
-    <t>Experiencia de grupo ganada +4%</t>
-  </si>
-  <si>
-    <t>Experiencia de grupo ganada +8%</t>
+    <t>Marcha Forçada</t>
+  </si>
+  <si>
+    <t>Cavaleiro Ágil</t>
+  </si>
+  <si>
+    <t>Destreza Equestre</t>
+  </si>
+  <si>
+    <t>Mestre da Reparação</t>
+  </si>
+  <si>
+    <t>Especialista em Reparação</t>
+  </si>
+  <si>
+    <t>Ferreiro</t>
+  </si>
+  <si>
+    <t>Gerenciar Suprimentos</t>
+  </si>
+  <si>
+    <t>Armazém de Grãos</t>
+  </si>
+  <si>
+    <t>Comprar Grãos</t>
+  </si>
+  <si>
+    <t>Grãos Melhorados</t>
+  </si>
+  <si>
+    <t>Disciplina Militar</t>
+  </si>
+  <si>
+    <t>Liderança</t>
+  </si>
+  <si>
+    <t>Cã Khan</t>
+  </si>
+  <si>
+    <t>Treinamento</t>
+  </si>
+  <si>
+    <t>Mestre do Treinamento</t>
+  </si>
+  <si>
+    <t>Bem Treinado</t>
+  </si>
+  <si>
+    <t>Amigo dos Animais</t>
+  </si>
+  <si>
+    <t>Colaboração</t>
+  </si>
+  <si>
+    <t>Comunicador Espiritual</t>
+  </si>
+  <si>
+    <t>Torre de Vigia</t>
+  </si>
+  <si>
+    <t>Cirurgião</t>
+  </si>
+  <si>
+    <t>Especialista em Cirurgia</t>
+  </si>
+  <si>
+    <t>Reabilitação</t>
+  </si>
+  <si>
+    <t>Alívio de Combate</t>
+  </si>
+  <si>
+    <t>Preparo de Poções</t>
+  </si>
+  <si>
+    <t>Reviver Rápido</t>
+  </si>
+  <si>
+    <t>Mestre Ocultista</t>
+  </si>
+  <si>
+    <t>Magnata</t>
+  </si>
+  <si>
+    <t>Saqueador</t>
+  </si>
+  <si>
+    <t>Rico</t>
+  </si>
+  <si>
+    <t>Expansão de Bolsa</t>
+  </si>
+  <si>
+    <t>Bolsa Maciça</t>
+  </si>
+  <si>
+    <t>Depósito de Orbes</t>
+  </si>
+  <si>
+    <t>Eficiência de Construção</t>
+  </si>
+  <si>
+    <t>Especialista em Jade</t>
+  </si>
+  <si>
+    <t>Mestre em Jade</t>
+  </si>
+  <si>
+    <t>Socialite</t>
+  </si>
+  <si>
+    <t>Perseguidor</t>
+  </si>
+  <si>
+    <t>Grande Bondade</t>
+  </si>
+  <si>
+    <t>Sargento de Treinamento</t>
+  </si>
+  <si>
+    <t>Milícia</t>
+  </si>
+  <si>
+    <t>Campeão</t>
+  </si>
+  <si>
+    <t>Camaradagem</t>
+  </si>
+  <si>
+    <t>Estimado</t>
+  </si>
+  <si>
+    <t>Animal Político</t>
+  </si>
+  <si>
+    <t>Prudência</t>
+  </si>
+  <si>
+    <t>Capitão Mercenário</t>
+  </si>
+  <si>
+    <t>Especialista em Cerco</t>
+  </si>
+  <si>
+    <t>Eloquência</t>
+  </si>
+  <si>
+    <t>Palavras de Persuasão</t>
+  </si>
+  <si>
+    <t>Especialista em Infiltração</t>
+  </si>
+  <si>
+    <t>Relatório de Espionagem</t>
+  </si>
+  <si>
+    <t>Aumentar a Velocidade do Mapa da Equipe em 15.</t>
+  </si>
+  <si>
+    <t>Aumentar a Velocidade do Mapa da Equipe em 20.</t>
+  </si>
+  <si>
+    <t>[$platform_called:pc,Pressione espaço enquanto estiver montado para correr. Correr consome a Stamina da Montaria e concede Velocidade do Mapa +80.|mobile,Pressione o botão da Montaria enquanto estiver montado para correr. Correr consome a Stamina da Montaria e concede Velocidade do Mapa +80.$]</t>
+  </si>
+  <si>
+    <t>Stamina da Montaria +25%</t>
+  </si>
+  <si>
+    <t>Aumentar a Velocidade de Movimento da Equipe em batalha em 15%.</t>
+  </si>
+  <si>
+    <t>Concede 1 conjunto de Ferramentas Forjadoras Supremas por semana.</t>
+  </si>
+  <si>
+    <t>Concede 1 conjunto de Ferramentas Forjadoras Avançadas por semana.</t>
+  </si>
+  <si>
+    <t>Reduzir todos os custos de reparo em 30%.</t>
+  </si>
+  <si>
+    <t>Consumo de Alimentos -10%</t>
+  </si>
+  <si>
+    <t>Aumentar o espaço no inventário de Alimentos em 3.</t>
+  </si>
+  <si>
+    <t>Concede 1 Trigo por semana.</t>
+  </si>
+  <si>
+    <t>Concede 1 Carne Seca por semana.</t>
+  </si>
+  <si>
+    <t>Aumentar a Vida Máxima de todos os aliados em batalha em 5%.</t>
+  </si>
+  <si>
+    <t>1 esquadrão adicional pode se juntar à sua equipe.</t>
+  </si>
+  <si>
+    <t>3 esquadrões adicionais podem se juntar à sua equipe.</t>
+  </si>
+  <si>
+    <t>Concede 200 EXP de Esquadrão por semana.</t>
+  </si>
+  <si>
+    <t>Concede 400 EXP de Esquadrão por semana.</t>
+  </si>
+  <si>
+    <t>Reduzir os custos de Utar, Madeira e Pedra de Ferro para atualizar tropas em 10%.</t>
+  </si>
+  <si>
+    <t>(Habilidade Ativa) Todos os Animais e Monstros aliados: Vida e Dano +10% em batalha.</t>
+  </si>
+  <si>
+    <t>(Habilidade Ativa) Todos os Humanos aliados: Vida e Dano +10% em batalha.</t>
+  </si>
+  <si>
+    <t>(Habilidade Ativa) Todos os Invocados e Magos aliados: Vida e Dano +10% em batalha.</t>
+  </si>
+  <si>
+    <t>Comande automaticamente as tropas durante a batalha.</t>
+  </si>
+  <si>
+    <t>Reduzir a Taxa de Lesões Graves da equipe em batalha em 5%.</t>
+  </si>
+  <si>
+    <t>Reduzir a Taxa de Lesões Graves da equipe em batalha em 10%.</t>
+  </si>
+  <si>
+    <t>Reduzir o custo de curar unidades feridas em 10%.</t>
+  </si>
+  <si>
+    <t>Aumentar a Regeneração de Vida da equipe em 5%.</t>
+  </si>
+  <si>
+    <t>Receber 1 Poção de Rosa Branca (S) toda semana.</t>
+  </si>
+  <si>
+    <t>Reduzir o tempo de ressurgimento do seu personagem principal em batalha em 1 segundo.</t>
+  </si>
+  <si>
+    <t>Receber 1 Poção de Rosa Branca (L) toda semana.</t>
+  </si>
+  <si>
+    <t>Aumentar o preço dos itens vendidos em 5%.</t>
+  </si>
+  <si>
+    <t>Aumentar o preço dos itens vendidos em 15%.</t>
+  </si>
+  <si>
+    <t>Itens empilháveis obtidos ao saquear Caravanas e Agricultores +30%.</t>
+  </si>
+  <si>
+    <t>Concede 300 Utar, 100 Madeira, 100 Pedra de Ferro e 1 Jade adicionais toda semana!</t>
+  </si>
+  <si>
+    <t>Aumentar a capacidade de carga em 5.</t>
+  </si>
+  <si>
+    <t>Aumentar a capacidade de carga em 15.</t>
+  </si>
+  <si>
+    <t>Concede 1 Orbe Restaurador por semana.</t>
+  </si>
+  <si>
+    <t>Concede 1 Orbe Arcano por semana.</t>
+  </si>
+  <si>
+    <t>Reduzir os recursos necessários para construir edifícios avançados em 25%.</t>
+  </si>
+  <si>
+    <t>Concede 2 Jades por semana.</t>
+  </si>
+  <si>
+    <t>Concede 3 Jades por semana.</t>
+  </si>
+  <si>
+    <t>Favor ganho com heróis +5%.</t>
+  </si>
+  <si>
+    <t>Favor ganho com heróis +10%.</t>
+  </si>
+  <si>
+    <t>Reduzir a chance de ser pego ao se infiltrar na cidade em 5%.</t>
+  </si>
+  <si>
+    <t>Reduzir o tempo de espera necessário entre dar presentes em 1 dia.</t>
+  </si>
+  <si>
+    <t>EXP de Equipe ganha +4%.</t>
+  </si>
+  <si>
+    <t>EXP de Equipe ganha +8%.</t>
+  </si>
+  <si>
+    <t>(Habilidade Ativa) Distribuição de EXP de heróis e tropas se torna 1:2.</t>
+  </si>
+  <si>
+    <t>(Habilidade Ativa) Distribuição de EXP de heróis e tropas se torna 2:1.</t>
+  </si>
+  <si>
+    <t>1 herói adicional pode se juntar à sua equipe.</t>
+  </si>
+  <si>
+    <t>2 heróis adicionais podem se juntar à sua equipe.</t>
+  </si>
+  <si>
+    <t>Favor ganho com facções e postos avançados +5%.</t>
+  </si>
+  <si>
+    <t>Pode persuadir heróis hostis com títulos avançados.</t>
+  </si>
+  <si>
+    <t>Recupere recursos adicionais em 10% ao dissolver um esquadrão.</t>
+  </si>
+  <si>
+    <t>Reduzir o custo de recrutar mercenários em 33%.</t>
+  </si>
+  <si>
+    <t>Começar um cerco requer 30% menos tempo.</t>
+  </si>
+  <si>
+    <t>Ganhe 2 Devoção a cada semana com a sua facção.</t>
+  </si>
+  <si>
+    <t>Aumentar a taxa de sucesso de esforços diplomáticos em 10%.</t>
+  </si>
+  <si>
+    <t>Reduzir o Favor necessário para recrutar todos os heróis em 15.</t>
+  </si>
+  <si>
+    <t>Revela todos os detalhes de todas as guarnições em todas as cidades em Salzaar no seu mapa.</t>
+  </si>
+  <si>
+    <t>Revela as informações dos heróis ativos em todo o seu mapa de Salzaar.</t>
   </si>
 </sst>
 </file>
@@ -991,7 +988,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -999,11 +996,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1013,6 +1025,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,7 +1053,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1330,11 +1351,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="217.85546875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60">
       <c r="A1" s="1" t="s">
@@ -1349,7 +1375,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2"/>
@@ -1367,13 +1393,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>301</v>
+      <c r="E3" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60">
@@ -1384,13 +1410,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>301</v>
+      <c r="E4" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
@@ -1401,16 +1427,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="409.5">
+      <c r="E5" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="405">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1418,13 +1444,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>246</v>
+      <c r="E6" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
@@ -1435,13 +1461,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>247</v>
+      <c r="E7" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75">
@@ -1457,8 +1483,8 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>248</v>
+      <c r="E8" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60">
@@ -1469,13 +1495,13 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>249</v>
+      <c r="E9" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60">
@@ -1486,13 +1512,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>250</v>
+      <c r="E10" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60">
@@ -1503,13 +1529,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
-        <v>251</v>
+      <c r="E11" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
@@ -1520,13 +1546,13 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>252</v>
+      <c r="E12" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45">
@@ -1537,13 +1563,13 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>252</v>
+      <c r="E13" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45">
@@ -1554,13 +1580,13 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>252</v>
+      <c r="E14" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45">
@@ -1571,13 +1597,13 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
-        <v>253</v>
+      <c r="E15" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
@@ -1588,13 +1614,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
-        <v>254</v>
+      <c r="E16" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45">
@@ -1605,13 +1631,13 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E17" t="s">
-        <v>254</v>
+      <c r="E17" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45">
@@ -1622,13 +1648,13 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="s">
-        <v>255</v>
+      <c r="E18" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="75">
@@ -1639,13 +1665,13 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E19" t="s">
-        <v>256</v>
+      <c r="E19" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
@@ -1656,13 +1682,13 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E20" t="s">
-        <v>303</v>
+      <c r="E20" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45">
@@ -1673,13 +1699,13 @@
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E21" t="s">
-        <v>303</v>
+      <c r="E21" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45">
@@ -1690,13 +1716,13 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E22" t="s">
-        <v>303</v>
+      <c r="E22" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
@@ -1707,13 +1733,13 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E23" t="s">
-        <v>303</v>
+      <c r="E23" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45">
@@ -1724,1203 +1750,1203 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" t="s">
-        <v>257</v>
+      <c r="E24" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>258</v>
+      <c r="E25" s="6" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45">
       <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" t="s">
-        <v>259</v>
+      <c r="E26" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="90">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>260</v>
+      <c r="E27" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="90">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" t="s">
-        <v>260</v>
+      <c r="E28" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="135">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" t="s">
-        <v>261</v>
+      <c r="E29" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="120">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" t="s">
-        <v>262</v>
+      <c r="E30" s="6" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="150">
       <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" t="s">
-        <v>263</v>
+      <c r="E31" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="90">
       <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" t="s">
-        <v>264</v>
+      <c r="E32" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="75">
       <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C33" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" t="s">
-        <v>265</v>
+      <c r="E33" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="75">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C34" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" t="s">
-        <v>265</v>
+      <c r="E34" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="75">
       <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
         <v>74</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C35" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" t="s">
-        <v>266</v>
+      <c r="E35" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="75">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" t="s">
-        <v>266</v>
+      <c r="E36" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="75">
       <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" t="s">
-        <v>267</v>
+      <c r="E37" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="75">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" t="s">
-        <v>267</v>
+      <c r="E38" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="90">
       <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C39" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" t="s">
-        <v>268</v>
+      <c r="E39" s="6" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="90">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C40" t="s">
-        <v>211</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" t="s">
-        <v>268</v>
+      <c r="E40" s="6" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="75">
       <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" t="s">
-        <v>269</v>
+      <c r="E41" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="75">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C42" t="s">
-        <v>212</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" t="s">
-        <v>269</v>
+      <c r="E42" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="75">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C43" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" t="s">
-        <v>269</v>
+      <c r="E43" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="75">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C44" t="s">
-        <v>213</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" t="s">
-        <v>270</v>
+      <c r="E44" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="75">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C45" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" t="s">
-        <v>270</v>
+      <c r="E45" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="75">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C46" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" t="s">
-        <v>270</v>
+      <c r="E46" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="75">
       <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C47" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" t="s">
-        <v>271</v>
+      <c r="E47" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" t="s">
-        <v>215</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" t="s">
-        <v>272</v>
+      <c r="E48" s="6" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C49" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" t="s">
-        <v>272</v>
+      <c r="E49" s="6" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" t="s">
-        <v>272</v>
+      <c r="E50" s="6" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="45">
       <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" t="s">
-        <v>216</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" t="s">
-        <v>273</v>
+      <c r="E51" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="105">
       <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" t="s">
-        <v>274</v>
+      <c r="E52" s="6" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="120">
       <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" t="s">
-        <v>218</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" t="s">
-        <v>275</v>
+      <c r="E53" s="6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30">
       <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
         <v>107</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C54" t="s">
-        <v>219</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" t="s">
-        <v>276</v>
+      <c r="E54" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C55" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" t="s">
-        <v>276</v>
+      <c r="E55" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C56" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" t="s">
-        <v>276</v>
+      <c r="E56" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45">
       <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
         <v>112</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C57" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" t="s">
-        <v>277</v>
+      <c r="E57" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="45">
       <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
         <v>115</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C58" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" t="s">
-        <v>278</v>
+      <c r="E58" s="6" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="45">
       <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" t="s">
-        <v>221</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" t="s">
-        <v>279</v>
+      <c r="E59" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="90">
       <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C60" t="s">
-        <v>222</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" t="s">
-        <v>280</v>
+      <c r="E60" s="6" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30">
       <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" t="s">
-        <v>281</v>
+      <c r="E61" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30">
       <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C62" t="s">
-        <v>224</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" t="s">
-        <v>282</v>
+      <c r="E62" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="75">
       <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="s">
-        <v>225</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" t="s">
-        <v>283</v>
+      <c r="E63" s="6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="75">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C64" t="s">
-        <v>225</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" t="s">
-        <v>283</v>
+      <c r="E64" s="6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="75">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C65" t="s">
-        <v>225</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" t="s">
-        <v>283</v>
+      <c r="E65" s="6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="75">
       <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" t="s">
-        <v>226</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" t="s">
-        <v>284</v>
+      <c r="E66" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="90">
       <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C67" t="s">
-        <v>227</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" t="s">
-        <v>285</v>
+      <c r="E67" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="90">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C68" t="s">
-        <v>227</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68" t="s">
-        <v>285</v>
+      <c r="E68" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="75">
       <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C69" t="s">
-        <v>228</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" t="s">
-        <v>286</v>
+      <c r="E69" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="75">
       <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E70" t="s">
-        <v>304</v>
+      <c r="E70" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="75">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C71" t="s">
-        <v>229</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E71" t="s">
-        <v>304</v>
+      <c r="E71" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="75">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C72" t="s">
-        <v>229</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" t="s">
-        <v>304</v>
+      <c r="E72" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="75">
       <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B73" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" t="s">
-        <v>230</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E73" t="s">
-        <v>305</v>
+      <c r="E73" s="6" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="120">
       <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B74" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" t="s">
-        <v>231</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" t="s">
-        <v>287</v>
+      <c r="E74" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="120">
       <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B75" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" t="s">
-        <v>232</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E75" t="s">
-        <v>288</v>
+      <c r="E75" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="45">
       <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B76" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" t="s">
-        <v>233</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" t="s">
-        <v>289</v>
+      <c r="E76" s="6" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="45">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C77" t="s">
-        <v>233</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E77" t="s">
-        <v>289</v>
+      <c r="E77" s="6" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="45">
       <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B78" t="s">
-        <v>154</v>
-      </c>
-      <c r="C78" t="s">
-        <v>234</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E78" t="s">
-        <v>290</v>
+      <c r="E78" s="6" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="75">
       <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B79" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" t="s">
-        <v>235</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E79" t="s">
-        <v>291</v>
+      <c r="E79" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="75">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C80" t="s">
-        <v>235</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E80" t="s">
-        <v>291</v>
+      <c r="E80" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="75">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C81" t="s">
-        <v>235</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E81" t="s">
-        <v>291</v>
+      <c r="E81" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="75">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C82" t="s">
-        <v>235</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E82" t="s">
-        <v>291</v>
+      <c r="E82" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="60">
       <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B83" t="s">
-        <v>161</v>
-      </c>
-      <c r="C83" t="s">
-        <v>236</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E83" t="s">
-        <v>292</v>
+      <c r="E83" s="6" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="75">
       <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
         <v>163</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C84" t="s">
-        <v>237</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E84" t="s">
-        <v>293</v>
+      <c r="E84" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="75">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C85" t="s">
-        <v>237</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E85" t="s">
-        <v>293</v>
+      <c r="E85" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="75">
       <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" t="s">
         <v>167</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C86" t="s">
-        <v>238</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E86" t="s">
-        <v>294</v>
+      <c r="E86" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="75">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C87" t="s">
-        <v>237</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E87" t="s">
-        <v>293</v>
+      <c r="E87" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="75">
       <c r="A88" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" t="s">
         <v>171</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88" t="s">
-        <v>295</v>
+      <c r="E88" s="6" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="75">
       <c r="A89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" t="s">
         <v>174</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C89" t="s">
-        <v>240</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E89" t="s">
-        <v>296</v>
+      <c r="E89" s="6" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="90">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
         <v>241</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E90" t="s">
-        <v>297</v>
+        <v>177</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="105">
       <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
         <v>179</v>
-      </c>
-      <c r="B91" t="s">
-        <v>180</v>
       </c>
       <c r="C91" t="s">
         <v>242</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E91" t="s">
-        <v>298</v>
+        <v>180</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="105">
       <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
         <v>182</v>
-      </c>
-      <c r="B92" t="s">
-        <v>183</v>
       </c>
       <c r="C92" t="s">
         <v>243</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E92" t="s">
-        <v>299</v>
+        <v>183</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="90">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C93" t="s">
         <v>244</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E93" t="s">
-        <v>300</v>
+        <v>185</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="90">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
         <v>241</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E94" t="s">
-        <v>297</v>
+        <v>177</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
